--- a/src/analysis_examples/circadb/results_lomb/cosinor_10354389_slc39a10_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10354389_slc39a10_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.27349530727084664, 0.3874562166686361]</t>
+          <t>[0.2747885793592589, 0.3861629445802239]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>6.627520754420857e-11</v>
+        <v>4.332534331297211e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>6.627520754420857e-11</v>
+        <v>4.332534331297211e-11</v>
       </c>
       <c r="O2" t="n">
         <v>0.08176317216550011</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.09434212172942313, 0.25786846606042335]</t>
+          <t>[-0.10692107129334616, 0.2704474156243464]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.3452653252305746</v>
+        <v>0.377719546622626</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3452653252305746</v>
+        <v>0.377719546622626</v>
       </c>
       <c r="S2" t="n">
         <v>0.4477232825185941</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.41129334153324015, 0.48415322350394796]</t>
+          <t>[0.4112983646845492, 0.4841482003526389]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>26.26372372372474</v>
       </c>
       <c r="X2" t="n">
-        <v>25.51789789789889</v>
+        <v>25.46462462462561</v>
       </c>
       <c r="Y2" t="n">
-        <v>27.0095495495506</v>
+        <v>27.06282282282388</v>
       </c>
     </row>
   </sheetData>
